--- a/EJ1/MedicionesEJ1.xlsx
+++ b/EJ1/MedicionesEJ1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaco\Desktop\repos\TC\TP2\EJ1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7306F7-6D4F-493C-A6AF-DC3A03388C6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D1CD62-011B-4D57-8B9D-D47A9D6E3D7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{330CFC65-47DF-4DDB-AA16-D2D14EA516F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Circ1-Caso1" sheetId="1" r:id="rId1"/>
+    <sheet name="Circ2-Caso1" sheetId="1" r:id="rId1"/>
     <sheet name="Circ1-Caso2" sheetId="3" r:id="rId2"/>
     <sheet name="Circ1-Caso3" sheetId="4" r:id="rId3"/>
-    <sheet name="Circ2-Caso1" sheetId="6" r:id="rId4"/>
+    <sheet name="Circ1-Caso1" sheetId="6" r:id="rId4"/>
     <sheet name="Circ2-Caso2" sheetId="7" r:id="rId5"/>
     <sheet name="Circ2-Caso3" sheetId="8" r:id="rId6"/>
   </sheets>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Frecuencia (Hz)</t>
   </si>
@@ -50,6 +72,21 @@
   </si>
   <si>
     <t>Respuesta en frecuencia</t>
+  </si>
+  <si>
+    <t>Amplitud(V)</t>
+  </si>
+  <si>
+    <t>max SR</t>
+  </si>
+  <si>
+    <t>SR (V/microS)</t>
+  </si>
+  <si>
+    <t>V/microS</t>
+  </si>
+  <si>
+    <t>OK?</t>
   </si>
 </sst>
 </file>
@@ -81,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,11 +206,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -278,7 +322,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Circ1-Caso1'!$A$2</c:f>
+              <c:f>'Circ2-Caso1'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -347,10 +391,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Circ1-Caso1'!$A$3:$A$496</c:f>
+              <c:f>'Circ2-Caso1'!$A$3:$A$495</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="494"/>
+                <c:ptCount val="493"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -370,20 +414,113 @@
                   <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10000000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100000000</c:v>
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Circ1-Caso1'!$B$3:$B$229</c:f>
+              <c:f>'Circ2-Caso1'!$B$3:$B$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="227"/>
+                <c:ptCount val="226"/>
+                <c:pt idx="2">
+                  <c:v>18.899000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.873999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1867,10 +2004,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Circ1-Caso1'!$A$3:$A$316</c:f>
+              <c:f>'Circ2-Caso1'!$A$3:$A$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="314"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1890,20 +2027,113 @@
                   <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10000000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100000000</c:v>
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Circ1-Caso1'!$C$3:$C$451</c:f>
+              <c:f>'Circ2-Caso1'!$C$3:$C$450</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="449"/>
+                <c:ptCount val="448"/>
+                <c:pt idx="2">
+                  <c:v>2.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-144.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.081</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-35.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-52.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-57.222999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-114.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-76.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-85.069000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-20.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-67.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.67</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3717,7 +3947,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Circ2-Caso1'!$A$1</c:f>
+              <c:f>'Circ1-Caso1'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3786,7 +4016,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Circ2-Caso1'!$A$2:$A$495</c:f>
+              <c:f>'Circ1-Caso1'!$A$2:$A$495</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="494"/>
@@ -3801,7 +4031,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Circ2-Caso1'!$B$2:$B$228</c:f>
+              <c:f>'Circ1-Caso1'!$B$2:$B$228</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="227"/>
@@ -4163,7 +4393,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Circ2-Caso1'!$A$2:$A$315</c:f>
+              <c:f>'Circ1-Caso1'!$A$2:$A$315</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="314"/>
@@ -4178,7 +4408,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Circ2-Caso1'!$C$2:$C$450</c:f>
+              <c:f>'Circ1-Caso1'!$C$2:$C$450</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="449"/>
@@ -11280,16 +11510,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11316,16 +11546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12055,82 +12285,5824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAF822A-A3DA-46D7-BB74-F34706986AF1}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:N556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E3" s="6">
+        <f>2*PI()*A3*D3*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f>IF(E3&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E66" si="0">2*PI()*A4*D4*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f t="shared" ref="F4:F66" si="1">IF(E4&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>18.899000000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.86</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1686724671354032E-3</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.8689</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1742645020587928E-2</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>100000</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>-60</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.191</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12000883936713008</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>-7.16</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-144.9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2692034320502765</v>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>NO OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>15000</v>
+      </c>
+      <c r="B9" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-10.081</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.185</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7435839227423353E-2</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>100000000</v>
+        <v>50000</v>
+      </c>
+      <c r="B10" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-35.340000000000003</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.188</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>5.9061941887488104E-2</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>80000</v>
+      </c>
+      <c r="B11" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-52.17</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5504416669129705E-2</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>90000</v>
+      </c>
+      <c r="B12" s="6">
+        <v>14.83</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-57.222999999999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.191</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10800795543041709</v>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>300000</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4.7995000000000001</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-97</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3675663404700058</v>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>500000</v>
+      </c>
+      <c r="B14" s="6">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-114.19</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61889375275718916</v>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>NO OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>6000</v>
+      </c>
+      <c r="B15" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="C15" s="6">
+        <v>-3.41</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.184</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>6.9366365791262629E-3</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>150000</v>
+      </c>
+      <c r="B16" s="6">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6">
+        <v>-76.7</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.193</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18189821464284903</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>200000</v>
+      </c>
+      <c r="B17" s="6">
+        <v>8.52</v>
+      </c>
+      <c r="C17" s="6">
+        <v>-85.069000000000003</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.193</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.242530952857132</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>250000</v>
+      </c>
+      <c r="B18" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-93</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.30630528372500482</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>30000</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-20.7</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.188</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>3.5437165132492864E-2</v>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>120000</v>
+      </c>
+      <c r="B20" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="C20" s="6">
+        <v>-67.5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14325662500369454</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>3000</v>
+      </c>
+      <c r="B21" s="6">
+        <v>18.873999999999999</v>
+      </c>
+      <c r="C21" s="6">
+        <v>-1.97</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.182</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>3.4306191777200537E-3</v>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>6000</v>
+      </c>
+      <c r="B22" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="C22" s="6">
+        <v>-3.67</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.182</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>6.8612383554401074E-3</v>
+      </c>
+      <c r="F22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E40" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E41" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E42" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E43" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E44" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E45" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E46" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E47" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E48" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E52" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E53" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E54" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E56" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E57" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E58" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E59" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E61" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E62" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="6">
+        <f t="shared" ref="E67:E130" si="2">2*PI()*A67*D67*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="6" t="str">
+        <f t="shared" ref="F67:F130" si="3">IF(E67&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E69" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E70" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E71" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E72" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E73" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E74" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E75" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E76" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E77" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E78" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E79" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E80" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E81" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E82" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E83" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E84" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E85" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E86" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E87" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E88" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E89" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E90" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E91" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E92" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E93" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E94" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E95" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E96" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E97" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E98" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E99" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E100" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E101" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E102" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E103" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E104" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E105" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E106" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E107" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E108" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E109" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E110" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E111" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E112" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E113" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E114" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E115" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E116" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E117" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F117" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E118" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E119" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E120" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E121" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E122" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E123" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E124" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F124" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E125" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F125" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E126" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F126" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E127" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F127" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E128" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F128" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E129" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F129" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E130" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F130" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E131" s="6">
+        <f t="shared" ref="E131:E194" si="4">2*PI()*A131*D131*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="6" t="str">
+        <f t="shared" ref="F131:F194" si="5">IF(E131&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E132" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F132" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E133" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F133" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E134" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F134" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E135" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F135" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E136" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F136" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E137" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F137" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E138" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F138" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E139" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F139" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E140" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F140" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E141" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F141" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E142" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F142" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E143" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F143" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="144" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E144" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F144" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="145" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E145" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F145" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="146" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E146" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F146" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="147" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E147" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F147" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E148" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F148" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E149" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F149" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E150" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F150" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E151" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F151" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="152" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E152" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F152" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E153" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F153" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E154" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F154" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E155" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F155" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E156" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F156" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="157" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E157" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F157" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="158" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E158" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F158" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="159" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E159" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="160" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E160" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E161" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F161" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E162" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F162" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E163" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F163" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E164" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F164" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E165" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F165" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E166" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F166" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E167" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F167" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E168" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F168" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E169" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F169" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E170" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F170" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E171" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F171" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E172" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F172" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E173" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F173" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E174" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F174" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E175" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F175" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E176" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F176" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E177" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F177" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E178" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F178" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E179" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F179" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E180" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F180" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E181" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F181" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E182" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F182" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E183" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F183" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E184" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F184" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E185" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F185" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E186" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F186" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E187" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F187" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E188" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F188" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E189" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F189" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E190" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F190" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E191" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F191" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E192" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F192" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E193" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F193" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E194" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F194" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E195" s="6">
+        <f t="shared" ref="E195:E258" si="6">2*PI()*A195*D195*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F195" s="6" t="str">
+        <f t="shared" ref="F195:F258" si="7">IF(E195&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E196" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F196" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E197" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F197" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E198" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F198" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E199" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F199" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E200" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F200" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="201" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E201" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F201" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="202" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E202" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F202" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="203" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E203" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F203" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="204" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E204" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F204" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="205" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E205" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F205" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="206" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E206" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F206" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="207" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E207" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F207" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="208" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E208" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F208" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="209" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E209" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F209" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="210" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E210" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F210" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="211" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E211" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F211" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="212" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E212" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F212" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="213" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E213" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F213" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E214" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F214" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="215" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E215" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F215" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="216" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E216" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F216" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="217" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E217" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F217" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="218" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E218" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F218" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="219" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E219" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F219" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="220" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E220" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F220" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="221" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E221" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F221" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="222" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E222" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F222" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="223" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E223" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F223" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="224" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E224" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F224" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="225" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E225" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F225" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="226" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E226" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F226" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="227" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E227" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F227" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="228" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E228" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F228" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="229" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E229" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F229" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="230" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E230" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F230" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="231" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E231" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F231" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="232" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E232" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F232" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="233" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E233" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F233" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="234" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E234" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F234" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="235" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E235" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F235" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="236" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E236" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F236" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="237" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E237" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F237" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="238" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E238" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F238" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="239" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E239" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F239" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="240" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E240" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F240" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="241" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E241" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F241" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="242" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E242" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F242" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="243" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E243" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F243" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="244" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E244" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F244" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="245" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E245" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F245" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="246" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E246" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F246" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="247" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E247" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F247" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="248" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E248" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F248" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="249" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E249" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F249" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="250" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E250" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F250" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="251" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E251" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F251" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="252" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E252" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F252" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="253" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E253" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F253" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="254" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E254" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F254" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="255" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E255" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F255" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="256" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E256" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F256" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="257" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E257" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F257" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="258" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E258" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F258" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="259" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E259" s="6">
+        <f t="shared" ref="E259:E322" si="8">2*PI()*A259*D259*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F259" s="6" t="str">
+        <f t="shared" ref="F259:F322" si="9">IF(E259&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="260" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E260" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F260" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="261" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E261" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F261" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="262" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E262" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F262" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="263" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E263" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F263" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="264" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E264" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F264" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="265" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E265" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F265" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="266" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E266" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F266" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="267" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E267" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F267" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="268" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E268" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F268" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="269" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E269" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F269" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="270" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E270" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F270" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="271" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E271" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F271" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="272" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E272" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F272" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="273" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E273" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F273" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="274" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E274" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F274" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="275" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E275" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F275" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="276" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E276" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F276" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="277" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E277" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F277" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="278" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E278" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F278" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="279" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E279" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F279" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="280" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E280" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F280" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="281" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E281" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F281" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="282" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E282" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F282" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="283" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E283" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F283" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="284" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E284" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F284" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="285" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E285" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F285" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="286" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E286" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F286" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="287" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E287" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F287" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="288" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E288" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F288" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="289" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E289" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F289" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E290" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F290" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="291" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E291" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F291" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="292" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E292" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F292" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="293" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E293" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F293" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="294" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E294" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F294" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="295" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E295" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F295" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="296" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E296" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F296" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="297" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E297" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F297" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="298" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E298" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F298" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="299" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E299" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F299" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="300" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E300" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F300" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="301" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E301" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F301" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="302" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E302" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F302" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="303" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E303" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F303" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="304" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E304" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F304" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="305" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E305" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F305" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="306" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E306" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F306" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="307" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E307" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F307" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="308" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E308" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F308" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="309" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E309" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F309" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="310" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E310" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F310" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="311" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E311" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F311" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="312" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E312" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F312" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="313" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E313" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F313" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="314" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E314" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F314" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="315" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E315" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F315" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="316" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E316" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F316" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="317" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E317" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F317" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="318" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E318" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F318" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="319" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E319" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F319" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="320" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E320" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F320" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="321" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E321" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F321" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="322" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E322" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F322" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="323" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E323" s="6">
+        <f t="shared" ref="E323:E386" si="10">2*PI()*A323*D323*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F323" s="6" t="str">
+        <f t="shared" ref="F323:F386" si="11">IF(E323&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="324" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E324" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F324" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="325" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E325" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F325" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="326" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E326" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F326" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="327" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E327" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F327" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="328" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E328" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F328" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="329" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E329" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F329" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="330" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E330" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F330" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="331" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E331" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F331" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="332" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E332" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F332" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="333" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E333" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F333" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="334" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E334" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F334" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="335" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E335" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F335" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="336" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E336" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F336" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="337" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E337" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F337" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="338" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E338" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F338" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="339" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E339" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F339" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="340" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E340" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F340" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="341" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E341" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F341" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="342" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E342" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F342" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="343" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E343" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F343" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="344" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E344" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F344" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="345" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E345" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F345" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="346" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E346" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F346" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="347" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E347" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F347" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="348" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E348" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F348" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="349" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E349" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F349" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="350" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E350" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F350" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="351" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E351" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F351" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="352" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E352" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F352" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="353" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E353" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F353" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="354" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E354" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F354" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="355" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E355" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F355" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="356" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E356" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F356" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="357" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E357" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F357" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="358" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E358" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F358" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="359" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E359" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F359" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="360" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E360" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F360" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="361" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E361" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F361" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="362" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E362" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F362" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="363" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E363" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F363" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="364" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E364" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F364" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="365" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E365" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F365" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="366" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E366" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F366" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="367" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E367" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F367" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="368" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E368" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F368" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="369" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E369" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F369" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="370" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E370" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F370" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="371" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E371" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F371" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="372" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E372" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F372" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="373" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E373" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F373" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="374" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E374" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F374" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="375" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E375" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F375" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="376" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E376" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F376" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="377" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E377" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F377" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="378" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E378" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F378" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="379" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E379" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F379" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="380" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E380" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F380" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="381" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E381" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F381" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="382" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E382" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F382" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="383" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E383" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F383" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="384" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E384" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F384" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="385" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E385" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F385" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="386" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E386" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F386" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="387" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E387" s="6">
+        <f t="shared" ref="E387:E450" si="12">2*PI()*A387*D387*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F387" s="6" t="str">
+        <f t="shared" ref="F387:F450" si="13">IF(E387&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="388" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E388" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F388" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="389" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E389" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F389" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="390" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E390" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F390" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="391" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E391" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F391" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="392" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E392" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F392" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="393" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E393" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F393" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="394" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E394" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F394" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="395" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E395" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F395" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="396" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E396" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F396" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="397" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E397" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F397" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="398" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E398" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F398" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="399" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E399" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F399" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="400" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E400" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F400" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="401" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E401" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F401" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="402" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E402" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F402" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="403" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E403" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F403" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="404" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E404" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F404" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="405" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E405" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F405" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="406" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E406" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F406" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="407" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E407" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F407" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="408" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E408" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F408" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="409" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E409" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F409" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="410" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E410" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F410" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="411" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E411" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F411" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="412" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E412" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F412" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="413" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E413" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F413" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="414" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E414" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F414" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="415" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E415" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F415" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="416" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E416" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F416" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="417" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E417" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F417" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="418" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E418" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F418" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="419" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E419" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F419" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="420" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E420" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F420" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="421" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E421" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F421" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="422" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E422" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F422" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="423" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E423" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F423" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="424" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E424" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F424" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="425" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E425" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F425" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="426" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E426" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F426" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="427" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E427" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F427" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="428" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E428" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F428" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="429" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E429" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F429" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="430" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E430" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F430" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="431" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E431" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F431" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="432" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E432" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F432" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="433" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E433" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F433" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="434" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E434" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F434" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="435" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E435" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F435" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="436" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E436" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F436" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="437" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E437" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F437" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="438" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E438" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F438" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="439" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E439" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F439" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="440" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E440" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F440" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="441" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E441" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F441" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="442" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E442" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F442" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="443" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E443" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F443" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="444" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E444" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F444" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="445" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E445" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F445" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="446" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E446" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F446" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="447" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E447" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F447" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="448" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E448" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F448" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="449" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E449" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F449" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="450" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E450" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F450" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="451" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E451" s="6">
+        <f t="shared" ref="E451:E514" si="14">2*PI()*A451*D451*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F451" s="6" t="str">
+        <f t="shared" ref="F451:F514" si="15">IF(E451&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="452" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E452" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F452" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="453" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E453" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F453" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="454" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E454" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F454" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="455" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E455" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F455" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="456" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E456" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F456" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="457" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E457" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F457" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="458" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E458" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F458" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="459" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E459" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F459" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="460" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E460" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F460" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="461" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E461" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F461" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="462" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E462" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F462" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="463" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E463" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F463" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="464" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E464" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F464" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="465" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E465" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F465" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="466" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E466" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F466" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="467" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E467" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F467" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="468" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E468" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F468" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="469" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E469" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F469" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="470" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E470" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F470" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="471" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E471" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F471" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="472" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E472" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F472" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="473" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E473" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F473" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="474" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E474" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F474" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="475" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E475" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F475" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="476" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E476" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F476" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="477" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E477" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F477" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="478" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E478" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F478" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="479" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E479" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F479" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="480" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E480" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F480" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="481" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E481" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F481" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="482" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E482" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F482" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="483" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E483" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F483" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="484" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E484" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F484" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="485" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E485" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F485" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="486" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E486" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F486" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="487" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E487" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F487" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="488" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E488" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F488" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="489" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E489" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F489" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="490" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E490" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F490" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="491" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E491" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F491" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="492" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E492" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F492" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="493" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E493" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F493" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="494" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E494" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F494" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="495" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E495" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F495" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="496" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E496" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F496" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="497" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E497" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F497" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="498" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E498" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F498" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="499" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E499" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F499" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="500" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E500" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F500" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="501" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E501" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F501" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="502" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E502" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F502" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="503" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E503" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F503" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="504" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E504" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F504" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="505" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E505" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F505" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="506" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E506" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F506" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="507" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E507" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F507" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="508" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E508" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F508" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="509" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E509" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F509" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="510" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E510" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F510" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="511" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E511" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F511" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="512" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E512" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F512" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="513" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E513" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F513" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="514" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E514" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F514" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="515" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E515" s="6">
+        <f t="shared" ref="E515:E552" si="16">2*PI()*A515*D515*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F515" s="6" t="str">
+        <f t="shared" ref="F515:F555" si="17">IF(E515&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="516" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E516" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F516" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="517" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E517" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F517" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="518" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E518" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F518" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="519" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E519" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F519" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="520" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E520" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F520" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="521" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E521" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F521" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="522" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E522" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F522" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="523" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E523" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F523" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="524" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E524" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F524" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="525" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E525" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F525" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="526" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E526" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F526" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="527" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E527" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F527" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="528" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E528" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F528" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="529" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E529" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F529" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="530" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E530" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F530" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="531" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E531" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F531" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="532" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E532" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F532" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="533" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E533" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F533" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="534" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E534" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F534" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="535" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E535" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F535" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="536" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E536" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F536" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="537" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E537" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F537" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="538" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E538" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F538" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="539" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E539" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F539" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="540" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E540" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F540" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="541" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E541" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F541" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="542" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E542" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F542" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="543" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E543" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F543" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="544" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E544" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F544" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="545" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E545" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F545" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="546" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E546" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F546" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="547" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E547" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F547" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="548" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E548" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F548" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="549" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E549" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F549" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="550" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E550" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F550" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="551" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E551" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F551" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="552" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E552" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F552" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="553" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E553" s="6" t="e" cm="1">
+        <f t="array" ref="E553">2*pi*A553*D553*0.000001</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F553" s="6" t="e">
+        <f t="shared" si="17"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="554" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E554" s="6" t="e" cm="1">
+        <f t="array" ref="E554">2*pi*A554*D554*0.000001</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F554" s="6" t="e">
+        <f t="shared" si="17"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="555" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E555" s="6" t="e" cm="1">
+        <f t="array" ref="E555">2*pi*A555*D555*0.000001</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F555" s="6" t="e">
+        <f t="shared" si="17"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="556" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E556" s="6" t="e" cm="1">
+        <f t="array" ref="E556">2*pi*A556*D556*0.000001</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/EJ1/MedicionesEJ1.xlsx
+++ b/EJ1/MedicionesEJ1.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joaco\Desktop\repos\TC\TP2\EJ1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AA3ED8-96A1-4D0D-8BEF-8732A87BAEDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8AB2AF-5AE6-4A3A-94A0-4263CD08A2FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{330CFC65-47DF-4DDB-AA16-D2D14EA516F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{330CFC65-47DF-4DDB-AA16-D2D14EA516F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Circ2-Caso1" sheetId="1" r:id="rId1"/>
     <sheet name="Circ2-Caso2" sheetId="9" r:id="rId2"/>
     <sheet name="Circ2-Caso3" sheetId="10" r:id="rId3"/>
     <sheet name="Circ1-Caso1" sheetId="12" r:id="rId4"/>
+    <sheet name="Circ1-Caso2" sheetId="13" r:id="rId5"/>
+    <sheet name="Circ1-Caso3" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
   <si>
     <t>Frecuencia (Hz)</t>
   </si>
@@ -85,6 +87,12 @@
   </si>
   <si>
     <t>OK?</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>RUIDO</t>
   </si>
 </sst>
 </file>
@@ -650,6 +658,555 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="5625023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>BODE - Fase</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Circ1-Caso2'!$A$3:$A$313</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="311"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Circ1-Caso2'!$C$3:$C$448</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="446"/>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>179.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>178.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>178.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>173.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>169.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>158.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125.77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44.55</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAFB-4CF2-A486-9FEEC3C69D3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="421620159"/>
+        <c:axId val="353052287"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="421620159"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353052287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="353052287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421620159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3457,7 +4014,7 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6000</c:v>
@@ -3466,13 +4023,13 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15000</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30000</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>50000</c:v>
@@ -3481,19 +4038,19 @@
                   <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>120000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>200000</c:v>
+                  <c:v>225000</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>250000</c:v>
@@ -3552,35 +4109,71 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="224"/>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>19.927</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.87</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.84</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19.593</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.3</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.82</c:v>
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.15</c:v>
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>11.327</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.9700000000000006</c:v>
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8759999999999999</c:v>
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.80200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-3.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.2439999999999998</c:v>
+                  <c:v>-7.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.199999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3952,7 +4545,7 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6000</c:v>
@@ -3961,13 +4554,13 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15000</c:v>
+                  <c:v>17000</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30000</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>50000</c:v>
@@ -3976,19 +4569,19 @@
                   <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>120000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>200000</c:v>
+                  <c:v>225000</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>250000</c:v>
@@ -4047,35 +4640,71 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="446"/>
+                <c:pt idx="1">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>178.57</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>174.09</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.03</c:v>
+                  <c:v>171.56</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>166.84</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>149.30000000000001</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>137.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126.54</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>114.73</c:v>
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>106.05</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>179.44</c:v>
+                </c:pt>
                 <c:pt idx="15">
-                  <c:v>95.23</c:v>
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78.61</c:v>
+                  <c:v>80.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>62.3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44.56</c:v>
+                  <c:v>51.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4280,7 +4909,610 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BODE - Módulo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Circ1-Caso2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia (Hz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Circ1-Caso2'!$A$3:$A$493</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="491"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Circ1-Caso2'!$B$3:$B$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="224"/>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.0980000000000008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10.15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-11.14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12.82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-16.73</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-18.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-20.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC86-4926-BC80-74043D8C690E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="5625023"/>
+        <c:axId val="16373359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="5625023"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16373359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="16373359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5625023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4600,7 +5832,549 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8616,6 +10390,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8914,6 +11190,87 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E44F07E2-57FB-491D-831E-F4FB3AFDADF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D4193A-AA5B-47C2-AC29-FBD9029134E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB0E1F4-5B91-4E21-B2A6-BFC1521CFE8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20914,7 +23271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3066859-845D-4460-B0D1-EABFCBFFF78C}">
   <dimension ref="A1:N555"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -26700,8 +29057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8477866D-FA67-49F9-9D33-A9AA6B5EE029}">
   <dimension ref="A1:N554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26768,9 +29125,18 @@
       <c r="A4" s="3">
         <v>10</v>
       </c>
+      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>179</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.192</v>
+      </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2063715789784806E-5</v>
       </c>
       <c r="F4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26781,9 +29147,18 @@
       <c r="A5" s="3">
         <v>100</v>
       </c>
+      <c r="B5" s="4">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <v>179</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.192</v>
+      </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2063715789784807E-4</v>
       </c>
       <c r="F5" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26814,11 +29189,20 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>3000</v>
+        <v>4000</v>
+      </c>
+      <c r="B7" s="4">
+        <v>19.87</v>
+      </c>
+      <c r="C7" s="4">
+        <v>174.09</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.192</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8254863159139221E-3</v>
       </c>
       <c r="F7" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26831,10 +29215,10 @@
         <v>6000</v>
       </c>
       <c r="B8" s="4">
-        <v>20.84</v>
+        <v>19.8</v>
       </c>
       <c r="C8" s="4">
-        <v>174.03</v>
+        <v>171.56</v>
       </c>
       <c r="D8" s="4">
         <v>8.3000000000000004E-2</v>
@@ -26872,11 +29256,20 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>15000</v>
+        <v>17000</v>
+      </c>
+      <c r="B10" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>160</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.192</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0508316842634169E-2</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26888,17 +29281,17 @@
         <v>25000</v>
       </c>
       <c r="B11" s="4">
-        <v>19.82</v>
+        <v>18.7</v>
       </c>
       <c r="C11" s="4">
         <v>149.30000000000001</v>
       </c>
       <c r="D11" s="4">
-        <v>8.5999999999999993E-2</v>
+        <v>0.192</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>1.3508848410436107E-2</v>
+        <v>3.0159289474462014E-2</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26907,11 +29300,20 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>30000</v>
+        <v>35000</v>
+      </c>
+      <c r="B12" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>137.96</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.192</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.222300526424682E-2</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26922,9 +29324,18 @@
       <c r="A13" s="3">
         <v>50000</v>
       </c>
+      <c r="B13" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C13" s="4">
+        <v>126.54</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.19400000000000001</v>
+      </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.0946897479641986E-2</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26936,17 +29347,17 @@
         <v>75000</v>
       </c>
       <c r="B14" s="4">
-        <v>15.15</v>
+        <v>13.5</v>
       </c>
       <c r="C14" s="4">
-        <v>114.73</v>
+        <v>113</v>
       </c>
       <c r="D14" s="4">
-        <v>8.7999999999999995E-2</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>4.1469023027385261E-2</v>
+        <v>9.2362824015539927E-2</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26955,11 +29366,20 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>90000</v>
+        <v>2000</v>
+      </c>
+      <c r="B15" s="4">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
+        <v>176</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.192</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4127431579569611E-3</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -26990,11 +29410,20 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>120000</v>
+        <v>500</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4">
+        <v>179.44</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.192</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.0318578948924026E-4</v>
       </c>
       <c r="F17" s="4" t="str">
         <f t="shared" si="1"/>
@@ -27006,17 +29435,16 @@
         <v>150000</v>
       </c>
       <c r="B18" s="4">
-        <v>9.9700000000000006</v>
+        <v>8.1</v>
       </c>
       <c r="C18" s="4">
-        <v>95.23</v>
+        <v>95.6</v>
       </c>
       <c r="D18" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>8.0110612666539724E-2</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="F18" s="4" t="str">
         <f t="shared" si="1"/>
@@ -27025,11 +29453,20 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>200000</v>
+        <v>225000</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C19" s="4">
+        <v>83.92</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.192</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27143360527015808</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="1"/>
@@ -27054,10 +29491,10 @@
         <v>300000</v>
       </c>
       <c r="B21" s="4">
-        <v>3.8759999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="C21" s="4">
-        <v>78.61</v>
+        <v>80.150000000000006</v>
       </c>
       <c r="D21" s="4">
         <v>8.4000000000000005E-2</v>
@@ -27075,9 +29512,18 @@
       <c r="A22" s="3">
         <v>400000</v>
       </c>
+      <c r="B22" s="4">
+        <v>-0.80200000000000005</v>
+      </c>
+      <c r="C22" s="4">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.192</v>
+      </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.48254863159139222</v>
       </c>
       <c r="F22" s="4" t="str">
         <f t="shared" si="1"/>
@@ -27137,17 +29583,17 @@
         <v>800000</v>
       </c>
       <c r="B26" s="4">
-        <v>-8.2439999999999998</v>
+        <v>-7.8</v>
       </c>
       <c r="C26" s="4">
-        <v>44.56</v>
+        <v>51.25</v>
       </c>
       <c r="D26" s="4">
-        <v>0.254</v>
+        <v>0.192</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>1.2767432544188917</v>
+        <v>0.96509726318278444</v>
       </c>
       <c r="F26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -27158,26 +29604,44 @@
       <c r="A27" s="3">
         <v>900000</v>
       </c>
+      <c r="B27" s="4">
+        <v>-9</v>
+      </c>
+      <c r="C27" s="4">
+        <v>46.7</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.192</v>
+      </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0857344210806323</v>
       </c>
       <c r="F27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>NO OK</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1000000</v>
       </c>
+      <c r="B28" s="4">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="C28" s="4">
+        <v>42.2</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.192</v>
+      </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2063715789784806</v>
       </c>
       <c r="F28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>OK</v>
+        <v>NO OK</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -32053,11 +34517,11 @@
     </row>
     <row r="514" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E514" s="4">
-        <f t="shared" ref="E514:E577" si="16">2*PI()*A514*D514*0.000001</f>
+        <f t="shared" ref="E514:E550" si="16">2*PI()*A514*D514*0.000001</f>
         <v>0</v>
       </c>
       <c r="F514" s="4" t="str">
-        <f t="shared" ref="F514:F577" si="17">IF(E514&lt;$I$2,"OK","NO OK")</f>
+        <f t="shared" ref="F514:F553" si="17">IF(E514&lt;$I$2,"OK","NO OK")</f>
         <v>OK</v>
       </c>
     </row>
@@ -32467,4 +34931,5956 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93B2015-8C3D-487C-A593-4E198D67B215}">
+  <dimension ref="A1:N554"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E66" si="0">2*PI()*A3*D3*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F66" si="1">IF(E3&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>180</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2126547642856602E-5</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"-0,1v"</f>
+        <v>-0,1v</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="4">
+        <v>179.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2126547642856602E-4</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>179.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.21265476428566E-3</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>179</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.42530952857132E-3</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>178.13</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0632738214283005E-3</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>178.06</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2126547642856601E-2</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>177</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4253095285713202E-2</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>173.9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6379642928569801E-2</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>169.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0632738214283E-2</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>75000</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>163.4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0949107321424513E-2</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>90000</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>161</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.10913892878570941</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="C16" s="8">
+        <v>158.41999999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.121265476428566</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>400000</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-3.59</v>
+      </c>
+      <c r="C17" s="4">
+        <v>99.84</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.485061905714264</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>150000</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>200000</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-0.89600000000000002</v>
+      </c>
+      <c r="C19" s="4">
+        <v>136.4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.242530952857132</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>250000</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-1.399</v>
+      </c>
+      <c r="C20" s="4">
+        <v>125.77</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.303163691071415</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>300000</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>115.79</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36379642928569805</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>350000</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-2.8</v>
+      </c>
+      <c r="C22" s="4">
+        <v>107.19</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.424429167499981</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>500000</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-5.16</v>
+      </c>
+      <c r="C23" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.60632738214283</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NO OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>600000</v>
+      </c>
+      <c r="B24" s="4">
+        <v>-6.58</v>
+      </c>
+      <c r="C24" s="4">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72759285857139611</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NO OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>700000</v>
+      </c>
+      <c r="B25" s="4">
+        <v>-7.9</v>
+      </c>
+      <c r="C25" s="4">
+        <v>65.7</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84885833499996199</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NO OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>800000</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-9.0980000000000008</v>
+      </c>
+      <c r="C26" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.97012381142852799</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NO OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>900000</v>
+      </c>
+      <c r="B27" s="4">
+        <v>-10.15</v>
+      </c>
+      <c r="C27" s="4">
+        <v>50.7</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0913892878570941</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NO OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B28" s="4">
+        <v>-11.14</v>
+      </c>
+      <c r="C28" s="4">
+        <v>44.55</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.21265476428566</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NO OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-12.82</v>
+      </c>
+      <c r="C31" s="4">
+        <v>34</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4551857171427922</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NO OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-16.73</v>
+      </c>
+      <c r="C33" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8189821464284901</v>
+      </c>
+      <c r="F33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NO OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="B34" s="4">
+        <v>-18.8</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.193</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>2.42530952857132</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>NO OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-20.9</v>
+      </c>
+      <c r="C36" s="4">
+        <v>53</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E56" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E57" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E58" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E59" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E61" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E62" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="4">
+        <f t="shared" ref="E67:E130" si="2">2*PI()*A67*D67*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="4" t="str">
+        <f t="shared" ref="F67:F130" si="3">IF(E67&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E69" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E70" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E71" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E72" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E73" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E74" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E75" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E77" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E78" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E79" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E80" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E81" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E82" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E83" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E84" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E85" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E86" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E87" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E88" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E89" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E90" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E91" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E92" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E93" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E94" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E95" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E96" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E97" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E98" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E99" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E100" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E101" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E102" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E103" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E104" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E105" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E106" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E107" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E108" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E109" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E110" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E111" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E112" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E113" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E114" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E115" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E116" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E117" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F117" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E118" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E119" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E120" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E121" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E122" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E123" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E124" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F124" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E125" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F125" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E126" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F126" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E127" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F127" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E128" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F128" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E129" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F129" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E130" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F130" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E131" s="4">
+        <f t="shared" ref="E131:E194" si="4">2*PI()*A131*D131*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="4" t="str">
+        <f t="shared" ref="F131:F194" si="5">IF(E131&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E132" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F132" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E133" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F133" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E134" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F134" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E135" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F135" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E136" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F136" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E137" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F137" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E138" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F138" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E139" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F139" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E140" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F140" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E141" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F141" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E142" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F142" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E143" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F143" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="144" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E144" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F144" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="145" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E145" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F145" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="146" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E146" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F146" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="147" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E147" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F147" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E148" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F148" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E149" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F149" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E150" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F150" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E151" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F151" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="152" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E152" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F152" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E153" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F153" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E154" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F154" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E155" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F155" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E156" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F156" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="157" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E157" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F157" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="158" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E158" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F158" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="159" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E159" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="160" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E160" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E161" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F161" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E162" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F162" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E163" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F163" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E164" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F164" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E165" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F165" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E166" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F166" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E167" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F167" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E168" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F168" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E169" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F169" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E170" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F170" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E171" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F171" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E172" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F172" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E173" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F173" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E174" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F174" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E175" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F175" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E176" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F176" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E177" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F177" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E178" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F178" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E179" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F179" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E180" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F180" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E181" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F181" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E182" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F182" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E183" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F183" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E184" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F184" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E185" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F185" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E186" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F186" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E187" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F187" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E188" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F188" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E189" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F189" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E190" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F190" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E191" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F191" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E192" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F192" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E193" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F193" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E194" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F194" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E195" s="4">
+        <f t="shared" ref="E195:E258" si="6">2*PI()*A195*D195*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F195" s="4" t="str">
+        <f t="shared" ref="F195:F258" si="7">IF(E195&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E196" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F196" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E197" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F197" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E198" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F198" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E199" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F199" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E200" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F200" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="201" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E201" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F201" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="202" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E202" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F202" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="203" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E203" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F203" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="204" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E204" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F204" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="205" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E205" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F205" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="206" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E206" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F206" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="207" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E207" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F207" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="208" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E208" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F208" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="209" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E209" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F209" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="210" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E210" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F210" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="211" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E211" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F211" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="212" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E212" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F212" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="213" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E213" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F213" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E214" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F214" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="215" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E215" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F215" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="216" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E216" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F216" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="217" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E217" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F217" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="218" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E218" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F218" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="219" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E219" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F219" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="220" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E220" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F220" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="221" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E221" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F221" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="222" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E222" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F222" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="223" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E223" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F223" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="224" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E224" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F224" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="225" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E225" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F225" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="226" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E226" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F226" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="227" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E227" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F227" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="228" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E228" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F228" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="229" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E229" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F229" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="230" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E230" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F230" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="231" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E231" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F231" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="232" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E232" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F232" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="233" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E233" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F233" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="234" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E234" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F234" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="235" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E235" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F235" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="236" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E236" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F236" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="237" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E237" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F237" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="238" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E238" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F238" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="239" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E239" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F239" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="240" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E240" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F240" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="241" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E241" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F241" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="242" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E242" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F242" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="243" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E243" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F243" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="244" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E244" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F244" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="245" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E245" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F245" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="246" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E246" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F246" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="247" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E247" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F247" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="248" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E248" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F248" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="249" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E249" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F249" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="250" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E250" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F250" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="251" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E251" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F251" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="252" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E252" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F252" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="253" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E253" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F253" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="254" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E254" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F254" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="255" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E255" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F255" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="256" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E256" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F256" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="257" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E257" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F257" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="258" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E258" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F258" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="259" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E259" s="4">
+        <f t="shared" ref="E259:E322" si="8">2*PI()*A259*D259*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F259" s="4" t="str">
+        <f t="shared" ref="F259:F322" si="9">IF(E259&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="260" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E260" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F260" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="261" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E261" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F261" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="262" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E262" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F262" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="263" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E263" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F263" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="264" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E264" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F264" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="265" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E265" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F265" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="266" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E266" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F266" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="267" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E267" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F267" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="268" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E268" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F268" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="269" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E269" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F269" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="270" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E270" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F270" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="271" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E271" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F271" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="272" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E272" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F272" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="273" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E273" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F273" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="274" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E274" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F274" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="275" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E275" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F275" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="276" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E276" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F276" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="277" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E277" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F277" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="278" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E278" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F278" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="279" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E279" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F279" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="280" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E280" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F280" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="281" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E281" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F281" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="282" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E282" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F282" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="283" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E283" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F283" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="284" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E284" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F284" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="285" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E285" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F285" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="286" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E286" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F286" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="287" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E287" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F287" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="288" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E288" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F288" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="289" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E289" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F289" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E290" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F290" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="291" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E291" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F291" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="292" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E292" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F292" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="293" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E293" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F293" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="294" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E294" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F294" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="295" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E295" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F295" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="296" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E296" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F296" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="297" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E297" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F297" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="298" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E298" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F298" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="299" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E299" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F299" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="300" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E300" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F300" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="301" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E301" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F301" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="302" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E302" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F302" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="303" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E303" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F303" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="304" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E304" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F304" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="305" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E305" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F305" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="306" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E306" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F306" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="307" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E307" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F307" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="308" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E308" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F308" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="309" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E309" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F309" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="310" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E310" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F310" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="311" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E311" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F311" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="312" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E312" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F312" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="313" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E313" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F313" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="314" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E314" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F314" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="315" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E315" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F315" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="316" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E316" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F316" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="317" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E317" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F317" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="318" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E318" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F318" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="319" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E319" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F319" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="320" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E320" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F320" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="321" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E321" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F321" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="322" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E322" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F322" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="323" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E323" s="4">
+        <f t="shared" ref="E323:E386" si="10">2*PI()*A323*D323*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F323" s="4" t="str">
+        <f t="shared" ref="F323:F386" si="11">IF(E323&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="324" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E324" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F324" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="325" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E325" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F325" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="326" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E326" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F326" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="327" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E327" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F327" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="328" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E328" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F328" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="329" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E329" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F329" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="330" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E330" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F330" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="331" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E331" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F331" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="332" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E332" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F332" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="333" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E333" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F333" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="334" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E334" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F334" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="335" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E335" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F335" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="336" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E336" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F336" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="337" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E337" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F337" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="338" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E338" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F338" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="339" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E339" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F339" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="340" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E340" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F340" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="341" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E341" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F341" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="342" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E342" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F342" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="343" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E343" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F343" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="344" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E344" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F344" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="345" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E345" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F345" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="346" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E346" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F346" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="347" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E347" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F347" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="348" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E348" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F348" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="349" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E349" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F349" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="350" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E350" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F350" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="351" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E351" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F351" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="352" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E352" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F352" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="353" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E353" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F353" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="354" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E354" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F354" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="355" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E355" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F355" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="356" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E356" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F356" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="357" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E357" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F357" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="358" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E358" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F358" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="359" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E359" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F359" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="360" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E360" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F360" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="361" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E361" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F361" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="362" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E362" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F362" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="363" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E363" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F363" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="364" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E364" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F364" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="365" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E365" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F365" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="366" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E366" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F366" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="367" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E367" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F367" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="368" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E368" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F368" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="369" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E369" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F369" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="370" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E370" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F370" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="371" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E371" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F371" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="372" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E372" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F372" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="373" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E373" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F373" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="374" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E374" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F374" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="375" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E375" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F375" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="376" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E376" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F376" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="377" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E377" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F377" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="378" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E378" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F378" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="379" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E379" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F379" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="380" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E380" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F380" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="381" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E381" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F381" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="382" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E382" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F382" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="383" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E383" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F383" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="384" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E384" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F384" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="385" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E385" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F385" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="386" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E386" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F386" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="387" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E387" s="4">
+        <f t="shared" ref="E387:E450" si="12">2*PI()*A387*D387*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F387" s="4" t="str">
+        <f t="shared" ref="F387:F450" si="13">IF(E387&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="388" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E388" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F388" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="389" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E389" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F389" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="390" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E390" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F390" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="391" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E391" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F391" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="392" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E392" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F392" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="393" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E393" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F393" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="394" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E394" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F394" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="395" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E395" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F395" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="396" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E396" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F396" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="397" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E397" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F397" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="398" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E398" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F398" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="399" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E399" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F399" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="400" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E400" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F400" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="401" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E401" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F401" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="402" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E402" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F402" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="403" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E403" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F403" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="404" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E404" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F404" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="405" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E405" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F405" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="406" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E406" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F406" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="407" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E407" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F407" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="408" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E408" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F408" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="409" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E409" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F409" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="410" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E410" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F410" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="411" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E411" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F411" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="412" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E412" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F412" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="413" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E413" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F413" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="414" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E414" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F414" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="415" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E415" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F415" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="416" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E416" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F416" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="417" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E417" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F417" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="418" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E418" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F418" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="419" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E419" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F419" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="420" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E420" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F420" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="421" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E421" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F421" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="422" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E422" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F422" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="423" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E423" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F423" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="424" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E424" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F424" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="425" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E425" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F425" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="426" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E426" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F426" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="427" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E427" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F427" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="428" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E428" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F428" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="429" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E429" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F429" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="430" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E430" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F430" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="431" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E431" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F431" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="432" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E432" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F432" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="433" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E433" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F433" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="434" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E434" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F434" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="435" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E435" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F435" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="436" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E436" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F436" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="437" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E437" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F437" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="438" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E438" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F438" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="439" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E439" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F439" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="440" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E440" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F440" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="441" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E441" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F441" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="442" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E442" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F442" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="443" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E443" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F443" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="444" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E444" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F444" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="445" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E445" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F445" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="446" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E446" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F446" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="447" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E447" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F447" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="448" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E448" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F448" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="449" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E449" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F449" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="450" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E450" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F450" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="451" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E451" s="4">
+        <f t="shared" ref="E451:E514" si="14">2*PI()*A451*D451*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F451" s="4" t="str">
+        <f t="shared" ref="F451:F514" si="15">IF(E451&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="452" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E452" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F452" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="453" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E453" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F453" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="454" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E454" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F454" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="455" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E455" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F455" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="456" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E456" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F456" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="457" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E457" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F457" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="458" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E458" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F458" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="459" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E459" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F459" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="460" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E460" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F460" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="461" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E461" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F461" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="462" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E462" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F462" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="463" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E463" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F463" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="464" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E464" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F464" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="465" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E465" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F465" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="466" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E466" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F466" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="467" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E467" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F467" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="468" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E468" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F468" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="469" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E469" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F469" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="470" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E470" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F470" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="471" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E471" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F471" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="472" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E472" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F472" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="473" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E473" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F473" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="474" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E474" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F474" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="475" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E475" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F475" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="476" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E476" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F476" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="477" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E477" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F477" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="478" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E478" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F478" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="479" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E479" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F479" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="480" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E480" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F480" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="481" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E481" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F481" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="482" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E482" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F482" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="483" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E483" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F483" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="484" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E484" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F484" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="485" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E485" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F485" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="486" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E486" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F486" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="487" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E487" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F487" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="488" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E488" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F488" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="489" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E489" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F489" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="490" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E490" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F490" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="491" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E491" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F491" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="492" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E492" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F492" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="493" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E493" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F493" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="494" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E494" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F494" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="495" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E495" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F495" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="496" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E496" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F496" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="497" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E497" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F497" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="498" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E498" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F498" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="499" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E499" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F499" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="500" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E500" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F500" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="501" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E501" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F501" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="502" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E502" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F502" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="503" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E503" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F503" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="504" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E504" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F504" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="505" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E505" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F505" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="506" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E506" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F506" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="507" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E507" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F507" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="508" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E508" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F508" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="509" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E509" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F509" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="510" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E510" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F510" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="511" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E511" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F511" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="512" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E512" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F512" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="513" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E513" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F513" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="514" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E514" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F514" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="515" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E515" s="4">
+        <f t="shared" ref="E515:E551" si="16">2*PI()*A515*D515*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="F515" s="4" t="str">
+        <f t="shared" ref="F515:F554" si="17">IF(E515&lt;$I$2,"OK","NO OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="516" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E516" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F516" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="517" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E517" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F517" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="518" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E518" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F518" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="519" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E519" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F519" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="520" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E520" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F520" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="521" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E521" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F521" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="522" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E522" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F522" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="523" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E523" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F523" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="524" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E524" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F524" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="525" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E525" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F525" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="526" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E526" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F526" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="527" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E527" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F527" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="528" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E528" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F528" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="529" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E529" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F529" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="530" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E530" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F530" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="531" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E531" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F531" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="532" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E532" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F532" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="533" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E533" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F533" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="534" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E534" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F534" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="535" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E535" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F535" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="536" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E536" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F536" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="537" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E537" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F537" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="538" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E538" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F538" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="539" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E539" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F539" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="540" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E540" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F540" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="541" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E541" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F541" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="542" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E542" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F542" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="543" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E543" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F543" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="544" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E544" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F544" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="545" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E545" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F545" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="546" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E546" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F546" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="547" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E547" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F547" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="548" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E548" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F548" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="549" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E549" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F549" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="550" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E550" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F550" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="551" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E551" s="4" t="e" cm="1">
+        <f t="array" ref="E551">2*pi*A551*D551*0.000001</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F551" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="552" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E552" s="4" t="e" cm="1">
+        <f t="array" ref="E552">2*pi*A552*D552*0.000001</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F552" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="553" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E553" s="4" t="e" cm="1">
+        <f t="array" ref="E553">2*pi*A553*D553*0.000001</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F553" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="554" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E554" s="4" t="e" cm="1">
+        <f t="array" ref="E554">2*pi*A554*D554*0.000001</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2A8F6E-BF9E-4536-B36A-71D1025C914B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>